--- a/data/hotels_by_city/Houston/Houston_shard_423.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_423.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56690-d99062-Reviews-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Knights-Inn-Houston-Hobby-Airport.h16120.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,180 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r293757298-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56690</t>
+  </si>
+  <si>
+    <t>99062</t>
+  </si>
+  <si>
+    <t>293757298</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>The price was right so I booked it. I had an upstairs room for 4 days and no elevator at all. It wasn't too bad except for loading and unloading the car. Had to make too many trips. The room was sort of clean but needs work. They did advertise coffee makers in the room, not so, I asked about that and the manager told me no! They have coffee by the lobby but no that good. tasted like colored water heated up. The pool area looked clean and some guest's did use it. I did not hear any complaints about it.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r292474066-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292474066</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Roaches/Do not stay here!!!</t>
+  </si>
+  <si>
+    <t>Not a great place to stay.  There were roaches in the restroom and dead roaches  in the drawers. The room had a very bad smell. When I went to the office to ask for a refund, the clerk stated that she had to check the room to make sure it was not used. She mentioned they have a lot of people use the rooms for a few minutes to a few  hours and leave. I told her that I was there  with my family, not for anything else.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r260764228-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260764228</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Disgusting, filthy place, please donot waste your money like I did!!</t>
+  </si>
+  <si>
+    <t>The old man checking me in continued with his personal call. The key didn't work because he set it to the wrong room. It says that they have a microwave &amp; fridge in each room, it's a lie &amp; false advertisement. they only have them in a few rooms &amp; they were all taken! there was burn holes on the floor &amp; blanket. the bathroom had blood on the doorknob, hair &amp; dirt in the tub &amp; it was clogged up by it. there was hair on the bathroom floor. they didn't put a baggie in the ice bucket &amp; no bag in the trash can. i was not able to get a refund on the 2nd night so i just checked out. we had a sleepless night due to the 2 roaches in the bathroom. I hope you're able to read this review, because i was not able to when i booked it thru last minute travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>The old man checking me in continued with his personal call. The key didn't work because he set it to the wrong room. It says that they have a microwave &amp; fridge in each room, it's a lie &amp; false advertisement. they only have them in a few rooms &amp; they were all taken! there was burn holes on the floor &amp; blanket. the bathroom had blood on the doorknob, hair &amp; dirt in the tub &amp; it was clogged up by it. there was hair on the bathroom floor. they didn't put a baggie in the ice bucket &amp; no bag in the trash can. i was not able to get a refund on the 2nd night so i just checked out. we had a sleepless night due to the 2 roaches in the bathroom. I hope you're able to read this review, because i was not able to when i booked it thru last minute travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r233676590-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233676590</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r206305648-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206305648</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>beatles and roaches invasion!</t>
+  </si>
+  <si>
+    <t>If you read the title, then you don't need to know anything else about this "so called" motel. It's even useless to write about the stink of the room, the dirty and outworn moquette, the sleazy bathroom, the malfunctioning door, the general lack of cleanliness and hygiene, the poor and damaged furniture, when you have roaches all over the room and on your own luggage! At the reception, not a word about it when we checked out few hours after we checked in (time necessary to find another hotel), they only took the money. A real nightmare!</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r185218887-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185218887</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>not the nicest, but its very clean.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I travel alot so this place for its price sucked! no fridge no microwave... other than that the neighborhood wasn't bad and very clean. better places to stay in hobby area than this one. also the front desk lady was VERY rude. we simply asked for another room key. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r84370143-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>84370143</t>
+  </si>
+  <si>
+    <t>10/21/2010</t>
+  </si>
+  <si>
+    <t>I WISHED THERE WERE MORE LIKE IT. WELL DONE!</t>
+  </si>
+  <si>
+    <t>Of all the motels we were researching in the area of Hobby Airport, Houston we were truly lucky to find this one! Besides the very nicely appointed rooms,the cleanliness, even a nicer breakfast then most other motels the service was truly outstanding. I commend the owners for recognizing my daughter and I when we returned after 3 weeks! What a concept! The owners even picked us up from Hobby and dropped us off again. And the price was definitely right!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r26880181-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26880181</t>
+  </si>
+  <si>
+    <t>03/26/2009</t>
+  </si>
+  <si>
+    <t>Not Your Average Days Inn</t>
+  </si>
+  <si>
+    <t>I went to Houston on Biz, While there I made arrangements with the Owner Mr. Richard Zaidfor a 7 day stay or longer. I was to return three weeks latter with three of my workers. We worked out a rate and arranged for a refrigerator and microwave in each room. We arrived to find the rooms unready for our stay.The front office staff couldn't do much, They had no on site maintenance staff ! We were invited to move the frig and microwave from other rooms ourselves (wich We did) only to fine three of the four did not work. This took three days to resolve . The exhaust fans did not work ,a T.V. in one room never did work properly ( very fuzzy), one room had an AC unit that froze up ever night at about four AM. We tried changing rooms but the room offered we much worseI repeatedly asked for Mr Zaid to call me ( we were working 10 hours a day on a job site)and never did receive any communication  from Mr Zaid!!!!!!! I asked for a reduction in My room rates or at least some comps !!!!! Nothing For this Roach infested Dive to have a " DAYS INN " sign over it ,is nothing short of faults  advertising                                                                                                              Jerald Finch                                                                                                          Atlas Ornamental IronMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I went to Houston on Biz, While there I made arrangements with the Owner Mr. Richard Zaidfor a 7 day stay or longer. I was to return three weeks latter with three of my workers. We worked out a rate and arranged for a refrigerator and microwave in each room. We arrived to find the rooms unready for our stay.The front office staff couldn't do much, They had no on site maintenance staff ! We were invited to move the frig and microwave from other rooms ourselves (wich We did) only to fine three of the four did not work. This took three days to resolve . The exhaust fans did not work ,a T.V. in one room never did work properly ( very fuzzy), one room had an AC unit that froze up ever night at about four AM. We tried changing rooms but the room offered we much worseI repeatedly asked for Mr Zaid to call me ( we were working 10 hours a day on a job site)and never did receive any communication  from Mr Zaid!!!!!!! I asked for a reduction in My room rates or at least some comps !!!!! Nothing For this Roach infested Dive to have a " DAYS INN " sign over it ,is nothing short of faults  advertising                                                                                                              Jerald Finch                                                                                                          Atlas Ornamental IronMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r20730766-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>20730766</t>
+  </si>
+  <si>
+    <t>10/08/2008</t>
+  </si>
+  <si>
+    <t>Ants on the bed!!</t>
+  </si>
+  <si>
+    <t>My boyfriend and I booked this hotel room because we were going to be flying out of Hobby Airport early the next morning.  When we arrived, the desk clerk did not seem to want to be there at all.  After getting our room key and finding our room, we noticed that the air conditioner in the room had not been on all day.  This was the end of June we visited, and we arrived after 10 pm...the room was STILL very stuffy and hot due to the air not running all day.  We were going to just make the best of it, then when we pulled the covers back on the bed we saw a steady stream of ants crawling on top of the sheets.  I ended up getting bit by one of ants and having an allergic reaction (I'm highly allergic to ants).  The front desk clerk did not want to give us our money back for the room, and we only got it after getting the manager on the phone.  We ended up going across the street to the Drury Inn to stay the night.  This place was just filthy over all!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>My boyfriend and I booked this hotel room because we were going to be flying out of Hobby Airport early the next morning.  When we arrived, the desk clerk did not seem to want to be there at all.  After getting our room key and finding our room, we noticed that the air conditioner in the room had not been on all day.  This was the end of June we visited, and we arrived after 10 pm...the room was STILL very stuffy and hot due to the air not running all day.  We were going to just make the best of it, then when we pulled the covers back on the bed we saw a steady stream of ants crawling on top of the sheets.  I ended up getting bit by one of ants and having an allergic reaction (I'm highly allergic to ants).  The front desk clerk did not want to give us our money back for the room, and we only got it after getting the manager on the phone.  We ended up going across the street to the Drury Inn to stay the night.  This place was just filthy over all!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +715,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +747,654 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_423.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_423.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r411009496-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56690</t>
+  </si>
+  <si>
+    <t>99062</t>
+  </si>
+  <si>
+    <t>411009496</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>Never Stay Here</t>
+  </si>
+  <si>
+    <t>Horrible Horrible I wouldn't have anyone stay here,  checked in walked into the room, the rooms was outdated, the carpet was dirty, the sheets didn't look clean they were dingy looking, the room smelled like sewage, the smell hit you as soon as you opened the door.  I went back to front desk and the clerk gave me a hard time about refunding my money &amp; was very unconcerned about the room only suggested giving me a new one.  I told her I wouldn't let me dog stay here.  Needless to say it was like midnight i had to find another hotel.  Finally got hold of management 2 days later to get a refund. I would  Never choose to Stay Here again.  Wyndham should remove Knights Inn's from there list of hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Horrible Horrible I wouldn't have anyone stay here,  checked in walked into the room, the rooms was outdated, the carpet was dirty, the sheets didn't look clean they were dingy looking, the room smelled like sewage, the smell hit you as soon as you opened the door.  I went back to front desk and the clerk gave me a hard time about refunding my money &amp; was very unconcerned about the room only suggested giving me a new one.  I told her I wouldn't let me dog stay here.  Needless to say it was like midnight i had to find another hotel.  Finally got hold of management 2 days later to get a refund. I would  Never choose to Stay Here again.  Wyndham should remove Knights Inn's from there list of hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r297548802-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297548802</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>It's a little rough but very clean.</t>
+  </si>
+  <si>
+    <t>We stayed here on our way to Galveston, everyone was booked on the night we stayed and the Knights Inn only had a few rooms left! It was pretty cheap so we were expecting a roach motel, but we were tired and just wanted a place to lay our heads. I was actually surprised when we got in the room! First thing I did was pull back the blanket and top sheets and check the bedding to make sure there were no bed bugs and the sheets were so crisp and smelled so clean! They were a little stained, and I'm talking tiny little pin point spots NOT like big yellow pee stain, but they were CLEAN!!! The room had some peeling wall paper and the place needs a lot of updating but from the outside it looked pretty darn good!!! While the rooms inside were a little shabby and in need of a little maintenance it was very clean and we would have slept a little better if there wasn't so much noise outside. It was kids running back and forth and banging into doors and such, not much fault of the owners.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed here on our way to Galveston, everyone was booked on the night we stayed and the Knights Inn only had a few rooms left! It was pretty cheap so we were expecting a roach motel, but we were tired and just wanted a place to lay our heads. I was actually surprised when we got in the room! First thing I did was pull back the blanket and top sheets and check the bedding to make sure there were no bed bugs and the sheets were so crisp and smelled so clean! They were a little stained, and I'm talking tiny little pin point spots NOT like big yellow pee stain, but they were CLEAN!!! The room had some peeling wall paper and the place needs a lot of updating but from the outside it looked pretty darn good!!! While the rooms inside were a little shabby and in need of a little maintenance it was very clean and we would have slept a little better if there wasn't so much noise outside. It was kids running back and forth and banging into doors and such, not much fault of the owners.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r293757298-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
   </si>
   <si>
-    <t>56690</t>
-  </si>
-  <si>
-    <t>99062</t>
-  </si>
-  <si>
     <t>293757298</t>
   </si>
   <si>
@@ -174,9 +216,6 @@
     <t>The price was right so I booked it. I had an upstairs room for 4 days and no elevator at all. It wasn't too bad except for loading and unloading the car. Had to make too many trips. The room was sort of clean but needs work. They did advertise coffee makers in the room, not so, I asked about that and the manager told me no! They have coffee by the lobby but no that good. tasted like colored water heated up. The pool area looked clean and some guest's did use it. I did not hear any complaints about it.</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -195,9 +234,6 @@
     <t>Not a great place to stay.  There were roaches in the restroom and dead roaches  in the drawers. The room had a very bad smell. When I went to the office to ask for a refund, the clerk stated that she had to check the room to make sure it was not used. She mentioned they have a lot of people use the rooms for a few minutes to a few  hours and leave. I told her that I was there  with my family, not for anything else.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r260764228-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
   </si>
   <si>
@@ -219,6 +255,43 @@
     <t>The old man checking me in continued with his personal call. The key didn't work because he set it to the wrong room. It says that they have a microwave &amp; fridge in each room, it's a lie &amp; false advertisement. they only have them in a few rooms &amp; they were all taken! there was burn holes on the floor &amp; blanket. the bathroom had blood on the doorknob, hair &amp; dirt in the tub &amp; it was clogged up by it. there was hair on the bathroom floor. they didn't put a baggie in the ice bucket &amp; no bag in the trash can. i was not able to get a refund on the 2nd night so i just checked out. we had a sleepless night due to the 2 roaches in the bathroom. I hope you're able to read this review, because i was not able to when i booked it thru last minute travel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r257016197-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257016197</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>Nasty ghetto 
+.....</t>
+  </si>
+  <si>
+    <t>From start to finish clerk in front smoking a cigarette    had done a booking online yet took 1.5 hours to get room key clerk did not care at the internet was down so did not even bother to look at my email or confirmation...finally get my room the heater does not work its 40 degrees in room hang clothes on clothes rack  rack falls from wall go to sink handle brakes off dirty room trash on floors scary ....do not stay here pay an extra $20 for a better stay...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r240453796-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240453796</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Do not stay here!</t>
+  </si>
+  <si>
+    <t>We chose this motel because it was close to the airport and we just needed a place to stay overnight. However I regretted that I did not take time to read the reviews first!  The hallway carpet was filthy, carpet in room was so filthy I was afraid for my dog to even walk on it. There was no shower curtain, holes in the bathroom door, exhaust fan did not work, no trash cans any where in room, and the bathroom sink looked as if it could fall off the wall any minute. The fact that there was no shower curtain was very comical because after seeing the state of the bathtub we would not have used it anyway, it needed a major scrubbing and there was hair all over the side of the tub. Then there was the parking lot, we ended up unloading everything from our car and dragging it into the room because there were so many questionable people wandering around the parking lot we were afraid to leave anything in the car. I am not a picky person when it comes to a room I only intend to stay in overnight , however I do want to feel safe and have a clean room and usable shower! Trust me just don't do it!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We chose this motel because it was close to the airport and we just needed a place to stay overnight. However I regretted that I did not take time to read the reviews first!  The hallway carpet was filthy, carpet in room was so filthy I was afraid for my dog to even walk on it. There was no shower curtain, holes in the bathroom door, exhaust fan did not work, no trash cans any where in room, and the bathroom sink looked as if it could fall off the wall any minute. The fact that there was no shower curtain was very comical because after seeing the state of the bathtub we would not have used it anyway, it needed a major scrubbing and there was hair all over the side of the tub. Then there was the parking lot, we ended up unloading everything from our car and dragging it into the room because there were so many questionable people wandering around the parking lot we were afraid to leave anything in the car. I am not a picky person when it comes to a room I only intend to stay in overnight , however I do want to feel safe and have a clean room and usable shower! Trust me just don't do it!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r233676590-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
   </si>
   <si>
@@ -267,6 +340,52 @@
     <t xml:space="preserve">I travel alot so this place for its price sucked! no fridge no microwave... other than that the neighborhood wasn't bad and very clean. better places to stay in hobby area than this one. also the front desk lady was VERY rude. we simply asked for another room key. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r130089139-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130089139</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>DO NOT STAY</t>
+  </si>
+  <si>
+    <t>The Houston Hobby Knights Inn is not what you think it is. (Wake up to free continental breakfast, then check your email with free Wi-Fi Internet access or take a dip in the outdoor pool. Each room includes a microwave and refrigerator) These words you see when you search for a room. Markey invites you to extend stay for a good price.  But what doesn’t tell you we are a rat hole hotel.  It’s not a hotel it’s a motel. There were no microwave, refigertor, air did not work, and bugs crawling all around getting into you cloths.  Pease do not stay for your vaction hotel or just a short vist. You will not be staisfied. The bed was to small for wo people. Ask to see the room first before you pay your unrefundable money. Please do not book online. You be sorry if you did...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>The Houston Hobby Knights Inn is not what you think it is. (Wake up to free continental breakfast, then check your email with free Wi-Fi Internet access or take a dip in the outdoor pool. Each room includes a microwave and refrigerator) These words you see when you search for a room. Markey invites you to extend stay for a good price.  But what doesn’t tell you we are a rat hole hotel.  It’s not a hotel it’s a motel. There were no microwave, refigertor, air did not work, and bugs crawling all around getting into you cloths.  Pease do not stay for your vaction hotel or just a short vist. You will not be staisfied. The bed was to small for wo people. Ask to see the room first before you pay your unrefundable money. Please do not book online. You be sorry if you did...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r125440482-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125440482</t>
+  </si>
+  <si>
+    <t>03/01/2012</t>
+  </si>
+  <si>
+    <t>It's a No No!!</t>
+  </si>
+  <si>
+    <t>This Knight's Inn is not what it's advertised. Firstly there is no shuttle service before 10 am and after 9 pm, so you have to take a cab to get to the airport for early/late flights (i don't know if they shuttle you in between either). I had stayed here for a night as i had to take an early morning flight. 
+On arrival there was no record of my booking, but the staff was pleasant and she was able to help me out with in a few minutes. She told me that she would give me a room in the front as i am a nice person and she would not like me to have a trouble staying at the back side of the building. (so much so for "feeling safe and secure"). And it's a hotel and "perhaps" is "supposed" to be safe all around, isn't it? 
+This hotel is in tatters. The size of the room was alright but it was horrible inside, i guess  they forgot to make the room since when the last visitor left. The side tables were lying quite much away from the bed and haphazardly. This is the first time i had a trouble with the bed itself while staying in a hotel, it was dirty and filthy and it took an effort to use the blanket on a chilly night. It was a similar story with the bathroom with a couple...This Knight's Inn is not what it's advertised. Firstly there is no shuttle service before 10 am and after 9 pm, so you have to take a cab to get to the airport for early/late flights (i don't know if they shuttle you in between either). I had stayed here for a night as i had to take an early morning flight. On arrival there was no record of my booking, but the staff was pleasant and she was able to help me out with in a few minutes. She told me that she would give me a room in the front as i am a nice person and she would not like me to have a trouble staying at the back side of the building. (so much so for "feeling safe and secure"). And it's a hotel and "perhaps" is "supposed" to be safe all around, isn't it? This hotel is in tatters. The size of the room was alright but it was horrible inside, i guess  they forgot to make the room since when the last visitor left. The side tables were lying quite much away from the bed and haphazardly. This is the first time i had a trouble with the bed itself while staying in a hotel, it was dirty and filthy and it took an effort to use the blanket on a chilly night. It was a similar story with the bathroom with a couple of thick/rough towels.In the morning there was no complimentary breakfast (at least not till 8 AM) as they advertise.There was no microwave or a refrigerator (although the room i had booked said so), and no 24 hour shuttle service. Wifi was present and was quick. Other then the helpful staff lady, it wasn't a pleasant stay and certainly not what the owner advertise for this place. Be careful !!.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>This Knight's Inn is not what it's advertised. Firstly there is no shuttle service before 10 am and after 9 pm, so you have to take a cab to get to the airport for early/late flights (i don't know if they shuttle you in between either). I had stayed here for a night as i had to take an early morning flight. 
+On arrival there was no record of my booking, but the staff was pleasant and she was able to help me out with in a few minutes. She told me that she would give me a room in the front as i am a nice person and she would not like me to have a trouble staying at the back side of the building. (so much so for "feeling safe and secure"). And it's a hotel and "perhaps" is "supposed" to be safe all around, isn't it? 
+This hotel is in tatters. The size of the room was alright but it was horrible inside, i guess  they forgot to make the room since when the last visitor left. The side tables were lying quite much away from the bed and haphazardly. This is the first time i had a trouble with the bed itself while staying in a hotel, it was dirty and filthy and it took an effort to use the blanket on a chilly night. It was a similar story with the bathroom with a couple...This Knight's Inn is not what it's advertised. Firstly there is no shuttle service before 10 am and after 9 pm, so you have to take a cab to get to the airport for early/late flights (i don't know if they shuttle you in between either). I had stayed here for a night as i had to take an early morning flight. On arrival there was no record of my booking, but the staff was pleasant and she was able to help me out with in a few minutes. She told me that she would give me a room in the front as i am a nice person and she would not like me to have a trouble staying at the back side of the building. (so much so for "feeling safe and secure"). And it's a hotel and "perhaps" is "supposed" to be safe all around, isn't it? This hotel is in tatters. The size of the room was alright but it was horrible inside, i guess  they forgot to make the room since when the last visitor left. The side tables were lying quite much away from the bed and haphazardly. This is the first time i had a trouble with the bed itself while staying in a hotel, it was dirty and filthy and it took an effort to use the blanket on a chilly night. It was a similar story with the bathroom with a couple of thick/rough towels.In the morning there was no complimentary breakfast (at least not till 8 AM) as they advertise.There was no microwave or a refrigerator (although the room i had booked said so), and no 24 hour shuttle service. Wifi was present and was quick. Other then the helpful staff lady, it wasn't a pleasant stay and certainly not what the owner advertise for this place. Be careful !!.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r84370143-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
   </si>
   <si>
@@ -322,6 +441,21 @@
   </si>
   <si>
     <t>My boyfriend and I booked this hotel room because we were going to be flying out of Hobby Airport early the next morning.  When we arrived, the desk clerk did not seem to want to be there at all.  After getting our room key and finding our room, we noticed that the air conditioner in the room had not been on all day.  This was the end of June we visited, and we arrived after 10 pm...the room was STILL very stuffy and hot due to the air not running all day.  We were going to just make the best of it, then when we pulled the covers back on the bed we saw a steady stream of ants crawling on top of the sheets.  I ended up getting bit by one of ants and having an allergic reaction (I'm highly allergic to ants).  The front desk clerk did not want to give us our money back for the room, and we only got it after getting the manager on the phone.  We ended up going across the street to the Drury Inn to stay the night.  This place was just filthy over all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d99062-r10183010-Knights_Inn_Houston_Hobby_Airport-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10183010</t>
+  </si>
+  <si>
+    <t>10/21/2007</t>
+  </si>
+  <si>
+    <t>Loves Skateboarders</t>
+  </si>
+  <si>
+    <t>Very Clean And Kind, Loves The Skateboarders That Come In Every Year!!Relaxed Atmosphere.</t>
   </si>
 </sst>
 </file>
@@ -856,33 +990,23 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -898,7 +1022,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -907,43 +1031,39 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +1079,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -968,37 +1088,37 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1006,7 +1126,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1036,29 +1156,27 @@
       <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>1</v>
@@ -1068,7 +1186,9 @@
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,20 +1230,16 @@
         <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>1</v>
@@ -1134,7 +1250,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1150,7 +1266,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1159,33 +1275,33 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s"/>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1197,7 +1313,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1213,7 +1329,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1222,37 +1338,37 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
       <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="n">
         <v>3</v>
       </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1260,7 +1376,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1276,7 +1392,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1285,34 +1401,30 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" t="s">
-        <v>92</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1326,9 +1438,7 @@
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
-      <c r="Y9" t="s">
-        <v>94</v>
-      </c>
+      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1343,7 +1453,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1352,25 +1462,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1379,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1394,7 +1504,454 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6138</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
